--- a/02 -Requirements/GROUP 5_Requirements_LeatherFlower System.xlsx
+++ b/02 -Requirements/GROUP 5_Requirements_LeatherFlower System.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Desktop\POO\PROYECTO\DOCUMENTACIÓN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Desktop\POO\3. DEES-developers\02 -Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD49BE1-433C-4589-8387-BFC9B1EEB9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0CCF52-4507-4750-9335-166BDC7A1729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>ITEM</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>REQ002</t>
-  </si>
-  <si>
-    <t>REQ003</t>
   </si>
   <si>
     <t>HISTORIA DE USUARIO (HU)</t>
@@ -123,9 +120,6 @@
     <t xml:space="preserve">Opcions menu </t>
   </si>
   <si>
-    <t>Schedule appointments</t>
-  </si>
-  <si>
     <t>Save customer data</t>
   </si>
   <si>
@@ -145,27 +139,6 @@
   </si>
   <si>
     <t>Data entry</t>
-  </si>
-  <si>
-    <t>Generate service billing</t>
-  </si>
-  <si>
-    <t>Show the amount to be charged for the service provided</t>
-  </si>
-  <si>
-    <t>So that there is proof of the service provided and a backup of it</t>
-  </si>
-  <si>
-    <t>Once the appointment is scheduled, you can pay for it or you can pay in installments, whatever the method, at the beginning of this you must invoice the amount that the service that will be provided acquires.</t>
-  </si>
-  <si>
-    <t>Everything will be verified once the payment invoice is issued</t>
-  </si>
-  <si>
-    <t>invoice issuance</t>
-  </si>
-  <si>
-    <t>Elkin Pabón - Diego Ponce</t>
   </si>
   <si>
     <t>PROBLEM</t>
@@ -207,6 +180,9 @@
   <si>
     <t xml:space="preserve">HISTORY NAME </t>
   </si>
+  <si>
+    <t>Schedule, delete, update appointments</t>
+  </si>
 </sst>
 </file>
 
@@ -215,7 +191,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,18 +327,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -792,7 +756,7 @@
     <xf numFmtId="0" fontId="22" fillId="11" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -906,20 +870,10 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="31" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="11" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="31" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="31" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -944,35 +898,17 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -981,6 +917,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Énfasis4" xfId="2" builtinId="42"/>
@@ -1056,7 +1010,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -1073,7 +1027,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8382000" y="16030575"/>
+          <a:off x="8375837" y="13215097"/>
           <a:ext cx="65" cy="172227"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1384,10 +1338,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z991"/>
+  <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1450,22 +1404,22 @@
     </row>
     <row r="3" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="57" t="s">
-        <v>27</v>
+      <c r="B3" s="53" t="s">
+        <v>26</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="59"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="55"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
@@ -1494,43 +1448,43 @@
         <v>0</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
@@ -1549,178 +1503,144 @@
         <v>4</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="F6" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="G6" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="H6" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="42" t="s">
+      <c r="J6" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="54" t="s">
+      <c r="K6" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="51" t="s">
+      <c r="L6" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="42" t="s">
+      <c r="N6" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="42" t="s">
+      <c r="O6" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="42" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="7" spans="1:26" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="F7" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="H7" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="43" t="s">
-        <v>19</v>
+      <c r="I7" s="45" t="s">
+        <v>20</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="J7" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="45" t="s">
+      <c r="N7" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="45" t="s">
+      <c r="O7" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" s="45" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" s="50" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="O8" s="47" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
+    </row>
+    <row r="8" spans="1:26" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="37"/>
+    </row>
+    <row r="9" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
       <c r="J9" s="35"/>
-      <c r="K9" s="34"/>
+      <c r="K9" s="39"/>
       <c r="L9" s="36"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="37"/>
-    </row>
-    <row r="10" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="10" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="7"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="4"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
     </row>
     <row r="12" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
@@ -1749,7 +1669,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="4"/>
+      <c r="K14" s="11"/>
       <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1769,7 +1689,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="11"/>
+      <c r="K16" s="4"/>
       <c r="L16" s="5"/>
     </row>
     <row r="17" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1800,7 +1720,8 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="5"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="12"/>
     </row>
     <row r="20" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
@@ -1832,7 +1753,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="3"/>
+      <c r="L22" s="49"/>
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1843,10 +1764,9 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="12"/>
-    </row>
-    <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -11501,38 +11421,28 @@
       <c r="E989" s="2"/>
       <c r="F989" s="2"/>
       <c r="H989" s="2"/>
-      <c r="I989" s="3"/>
-      <c r="J989" s="3"/>
-      <c r="K989" s="4"/>
+      <c r="I989" s="5"/>
+      <c r="J989" s="5"/>
+      <c r="K989" s="7"/>
       <c r="L989" s="5"/>
     </row>
-    <row r="990" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B990" s="1"/>
-      <c r="E990" s="2"/>
-      <c r="F990" s="2"/>
+    <row r="990" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H990" s="2"/>
       <c r="I990" s="5"/>
       <c r="J990" s="5"/>
       <c r="K990" s="7"/>
       <c r="L990" s="5"/>
     </row>
-    <row r="991" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H991" s="2"/>
-      <c r="I991" s="5"/>
-      <c r="J991" s="5"/>
-      <c r="K991" s="7"/>
-      <c r="L991" s="5"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:O3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K9:K10" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>$K$20:$K$22</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K9" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>$K$19:$K$21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L9:L10" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>$L$20:$L$23</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L8:L9" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>$L$19:$L$22</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -11577,23 +11487,23 @@
       <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="74" t="s">
-        <v>7</v>
+      <c r="B6" s="78" t="s">
+        <v>6</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="59"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="55"/>
     </row>
     <row r="7" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
@@ -11647,15 +11557,15 @@
         <v>0</v>
       </c>
       <c r="D9" s="22"/>
-      <c r="E9" s="75" t="s">
-        <v>8</v>
+      <c r="E9" s="74" t="s">
+        <v>7</v>
       </c>
-      <c r="F9" s="59"/>
+      <c r="F9" s="55"/>
       <c r="G9" s="22"/>
-      <c r="H9" s="75" t="s">
+      <c r="H9" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="59"/>
+      <c r="I9" s="55"/>
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
       <c r="L9" s="23"/>
@@ -11671,17 +11581,17 @@
         <v>4</v>
       </c>
       <c r="D10" s="26"/>
-      <c r="E10" s="76" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O10,5,0)</f>
+      <c r="E10" s="75" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O9,5,0)</f>
         <v>Customer (owner)</v>
       </c>
-      <c r="F10" s="59"/>
+      <c r="F10" s="55"/>
       <c r="G10" s="27"/>
-      <c r="H10" s="76" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O10,11,0)</f>
+      <c r="H10" s="75" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O9,11,0)</f>
         <v>In process</v>
       </c>
-      <c r="I10" s="59"/>
+      <c r="I10" s="55"/>
       <c r="J10" s="27"/>
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
@@ -11723,18 +11633,18 @@
       <c r="A12" s="6"/>
       <c r="B12" s="20"/>
       <c r="C12" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="55"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="59"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="59"/>
+      <c r="I12" s="55"/>
       <c r="J12" s="27"/>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
@@ -11757,21 +11667,21 @@
       <c r="A13" s="6"/>
       <c r="B13" s="20"/>
       <c r="C13" s="30" t="str">
-        <f>VLOOKUP('Historia de Usuario'!C10,'Formato descripción HU'!B6:O10,8,0)</f>
+        <f>VLOOKUP('Historia de Usuario'!C10,'Formato descripción HU'!B6:O9,8,0)</f>
         <v>In process</v>
       </c>
       <c r="D13" s="26"/>
-      <c r="E13" s="76" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O10,10,0)</f>
+      <c r="E13" s="75" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O9,10,0)</f>
         <v>hight</v>
       </c>
-      <c r="F13" s="59"/>
+      <c r="F13" s="55"/>
       <c r="G13" s="27"/>
-      <c r="H13" s="76" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O10,7,0)</f>
+      <c r="H13" s="75" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O9,7,0)</f>
         <v>Steven Pozo</v>
       </c>
-      <c r="I13" s="59"/>
+      <c r="I13" s="55"/>
       <c r="J13" s="27"/>
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
@@ -11821,34 +11731,34 @@
     <row r="15" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="20"/>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="79" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O9,3,0)</f>
+        <v xml:space="preserve">Log in </v>
+      </c>
+      <c r="E15" s="61"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="77" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O10,3,0)</f>
-        <v xml:space="preserve">Log in </v>
+      <c r="H15" s="79" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O9,4,0)</f>
+        <v>So you can schedule, postpone or cancel appointments</v>
       </c>
-      <c r="E15" s="64"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="60" t="s">
+      <c r="I15" s="60"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="77" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O10,4,0)</f>
-        <v>So you can schedule, postpone or cancel appointments</v>
-      </c>
-      <c r="I15" s="71"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="70" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O10,6,0)</f>
+      <c r="M15" s="59" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O9,6,0)</f>
         <v>In the main interface a menu will be displayed where it will be indicated that you must log in to make any changes in the system, if there are no changes you can view the calendar in another option of the main menu</v>
       </c>
-      <c r="N15" s="71"/>
-      <c r="O15" s="64"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="61"/>
       <c r="P15" s="24"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
@@ -11864,19 +11774,19 @@
     <row r="16" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="20"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="64"/>
       <c r="F16" s="23"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="69"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="64"/>
       <c r="K16" s="23"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="69"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="64"/>
       <c r="P16" s="24"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
@@ -11892,19 +11802,19 @@
     <row r="17" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="20"/>
-      <c r="C17" s="62"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="65"/>
-      <c r="E17" s="66"/>
+      <c r="E17" s="67"/>
       <c r="F17" s="23"/>
-      <c r="G17" s="62"/>
+      <c r="G17" s="58"/>
       <c r="H17" s="65"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="67"/>
       <c r="K17" s="23"/>
-      <c r="L17" s="62"/>
+      <c r="L17" s="58"/>
       <c r="M17" s="65"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="67"/>
       <c r="P17" s="24"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
@@ -11947,42 +11857,42 @@
     </row>
     <row r="19" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="20"/>
-      <c r="C19" s="63" t="s">
-        <v>14</v>
+      <c r="C19" s="76" t="s">
+        <v>13</v>
       </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="78" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O10,14,0)</f>
+      <c r="D19" s="61"/>
+      <c r="E19" s="68" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O9,14,0)</f>
         <v>Validate data</v>
       </c>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="80"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="70"/>
       <c r="P19" s="24"/>
       <c r="Q19" s="6"/>
     </row>
     <row r="20" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="20"/>
       <c r="C20" s="65"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="82"/>
-      <c r="O20" s="83"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="73"/>
       <c r="P20" s="24"/>
       <c r="Q20" s="6"/>
     </row>
@@ -12007,29 +11917,29 @@
     <row r="22" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="20"/>
-      <c r="C22" s="67" t="s">
-        <v>15</v>
+      <c r="C22" s="77" t="s">
+        <v>14</v>
       </c>
-      <c r="D22" s="64"/>
-      <c r="E22" s="70" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O10,12,0)</f>
+      <c r="D22" s="61"/>
+      <c r="E22" s="59" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O9,12,0)</f>
         <v>At the time of entering your previously created username and password, you can enter to make any changes in the system</v>
       </c>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="64"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="61"/>
       <c r="I22" s="23"/>
-      <c r="J22" s="67" t="s">
+      <c r="J22" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="64"/>
-      <c r="L22" s="70" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O10,13,0)</f>
+      <c r="K22" s="61"/>
+      <c r="L22" s="59" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O9,13,0)</f>
         <v>The username and password must be alphanumeric.</v>
       </c>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="64"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="61"/>
       <c r="P22" s="24"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
@@ -12045,19 +11955,19 @@
     <row r="23" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="20"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="69"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="64"/>
       <c r="I23" s="23"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="69"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="64"/>
       <c r="P23" s="24"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
@@ -12074,18 +11984,18 @@
       <c r="A24" s="6"/>
       <c r="B24" s="20"/>
       <c r="C24" s="65"/>
-      <c r="D24" s="66"/>
+      <c r="D24" s="67"/>
       <c r="E24" s="65"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
       <c r="I24" s="23"/>
       <c r="J24" s="65"/>
-      <c r="K24" s="66"/>
+      <c r="K24" s="67"/>
       <c r="L24" s="65"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="67"/>
       <c r="P24" s="24"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
@@ -13664,11 +13574,6 @@
     <row r="1020" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:O17"/>
-    <mergeCell ref="E19:O20"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C19:D20"/>
     <mergeCell ref="C22:D24"/>
@@ -13685,6 +13590,11 @@
     <mergeCell ref="D15:E17"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="H15:J17"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:O17"/>
+    <mergeCell ref="E19:O20"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:I11">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
@@ -13715,7 +13625,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
-            <xm:f>'Formato descripción HU'!$B$6:$B$9</xm:f>
+            <xm:f>'Formato descripción HU'!$B$6:$B$8</xm:f>
           </x14:formula1>
           <xm:sqref>C10:C11</xm:sqref>
         </x14:dataValidation>
